--- a/release-notes/2024-04/closed-bugs-sle-2024-04.xlsx
+++ b/release-notes/2024-04/closed-bugs-sle-2024-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nio365.sharepoint.com/sites/IoTProgram/Shared Documents/ProjectDocuments/SystemLink 2024/2024 Q2 (v.24.3)(releasing out of Cycle 24.C1)/Common docs/Release notes/SLE 2024-04 Release Notes - March iteration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markblack/repos/github/install-systemlink-enterprise/release-notes/2024-04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{0357FC32-4DB0-FA47-B55E-60093BEFF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05BD474C-1EF6-42C3-A17D-58C175BDED37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F05EF4-35BF-DE4C-8E8A-14978FED61C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="6180" windowWidth="23240" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="closed bugs in last iteration" sheetId="1" r:id="rId1"/>
@@ -50,42 +50,18 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>Path containing / makes problems by deleting</t>
-  </si>
-  <si>
     <t>Creating a String tag: columns min/Max/Avg are "null" instead of empty</t>
   </si>
   <si>
-    <t>Tags toolbar does not update on selection sometimes when opened from the Systems grid</t>
-  </si>
-  <si>
-    <t>Inconsistent use of timerange and time range</t>
-  </si>
-  <si>
-    <t>[Feeds UI] Redirect user to details page after feed creation</t>
-  </si>
-  <si>
-    <t>[UI] Allow creation of feeds with the same name as feeds from other workspaces</t>
-  </si>
-  <si>
     <t>[Tags] Minion receives bad request when publishing asset tags to SLE</t>
   </si>
   <si>
     <t>The `getProduct` API gets called with deleted product on products detail Page</t>
   </si>
   <si>
-    <t>Remove niartifacts-generic from our charts and documentation</t>
-  </si>
-  <si>
     <t>Edit routine doesn't check dirty state of controls</t>
   </si>
   <si>
-    <t>You have to click Starred twice in Grafana before it works</t>
-  </si>
-  <si>
-    <t>Document required S3 permissions for the DFS and Dremio</t>
-  </si>
-  <si>
     <t xml:space="preserve">TestInsights | Results | Filter Query builder is showing scroll bar </t>
   </si>
   <si>
@@ -104,16 +80,40 @@
     <t>"Refresh" icon in "Add systems" slide-out is not sized properly</t>
   </si>
   <si>
-    <t>FileIngestion helm chart does not allow customizing the s3 credentials secret keys</t>
-  </si>
-  <si>
     <t>Change the Regenerate credentials icon to nimble-icon-arrow-partial-rotate-left</t>
   </si>
   <si>
-    <t>Document required S3 permissions for the File Service</t>
-  </si>
-  <si>
-    <t>Show notebook ID so users can more easily run executions from swagger</t>
+    <t>Tag Path containing / makes cannot be deleted from SystemLink web application</t>
+  </si>
+  <si>
+    <t>Tags toolbar fails to update on selection when opened from the Systems table</t>
+  </si>
+  <si>
+    <t>Inconsistent use of the terms timerange and time range</t>
+  </si>
+  <si>
+    <t>Feeds UI should Redirect user to feed details page after feed creation</t>
+  </si>
+  <si>
+    <t>Allow creation of feeds with the same name as feeds from other workspaces</t>
+  </si>
+  <si>
+    <t>Remove niartifacts-generic from top level Helm charts and documentation</t>
+  </si>
+  <si>
+    <t>User must click Starred twice in Grafana before dashboard is added to favorites</t>
+  </si>
+  <si>
+    <t>Update user facing documentation for required S3 permissions for the DFS and Dremio</t>
+  </si>
+  <si>
+    <t>FileIngestion Helm chart does not allow customizing the s3 credentials secret keys</t>
+  </si>
+  <si>
+    <t>Updated user facing documentation for required S3 permissions for the File Service</t>
+  </si>
+  <si>
+    <t>Show notebook ID in JupyterHub so users can more easily run executions from swagger</t>
   </si>
 </sst>
 </file>
@@ -957,15 +957,15 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,227 +976,227 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2654395</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2654399</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2667367</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2675667</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2681463</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2684143</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2701431</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2673143</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2642640</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2661532</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2665928</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2654880</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2689869</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2683701</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2694665</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2670774</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2673284</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2677082</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2677745</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2680986</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2654888</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2667537</v>
       </c>
@@ -1238,6 +1238,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC68938C25E75A48B38E3943F7278D4C" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f386436e95be0043924bcf0cd6e2e3e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9" xmlns:ns3="8f35f8fb-94b8-4296-88b5-253c68a5f93d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5eec6196c8d92b4beb5d11b9b1aa531" ns2:_="" ns3:_="">
     <xsd:import namespace="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
@@ -1486,15 +1495,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}">
   <ds:schemaRefs>
@@ -1513,6 +1513,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CD8DA2-193C-44CF-BA17-F8ECBA32973C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1529,12 +1537,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>